--- a/hardware/Fabrication files/fydp-BOM.xlsx
+++ b/hardware/Fabrication files/fydp-BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingze\Documents\KiCad\7.0\projects\FYDP\hardware\Fabrication files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5915138B-F029-4039-B9B9-268FE539A43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC35A8F-BBAB-49D4-8432-EF8E5AF4DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="21600"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fydp-BOM" sheetId="1" r:id="rId1"/>
@@ -523,12 +523,6 @@
     <t>3.6k</t>
   </si>
   <si>
-    <t>C865466</t>
-  </si>
-  <si>
-    <t>RT0805BRD073K6L</t>
-  </si>
-  <si>
     <t>3.6 kOhms ±0.1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Thin Film</t>
   </si>
   <si>
@@ -788,12 +782,18 @@
   </si>
   <si>
     <t>https://www.analog.com/media/en/technical-documentation/data-sheets/235316f.pdf</t>
+  </si>
+  <si>
+    <t>C137533</t>
+  </si>
+  <si>
+    <t>RC0805FR-073K6L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1271,7 +1271,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1284,6 +1284,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1659,11 +1662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2551,15 +2554,15 @@
         <v>140</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2571,22 +2574,22 @@
         <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>144</v>
@@ -2600,7 +2603,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D36" s="3">
         <v>100</v>
@@ -2609,13 +2612,13 @@
         <v>140</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>144</v>
@@ -2629,22 +2632,22 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>144</v>
@@ -2658,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2690,22 +2693,22 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>154</v>
@@ -2719,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D40" s="3">
         <v>120</v>
@@ -2728,13 +2731,13 @@
         <v>140</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>144</v>
@@ -2748,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D41" s="3">
         <v>290</v>
@@ -2757,13 +2760,13 @@
         <v>140</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>144</v>
@@ -2777,22 +2780,22 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>144</v>
@@ -2806,13 +2809,13 @@
         <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>92</v>
@@ -2826,28 +2829,28 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="H44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40</v>
       </c>
@@ -2855,25 +2858,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="G45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2884,22 +2887,22 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="H46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="J46" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2910,25 +2913,25 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="G47" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="H47" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2939,25 +2942,25 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="G48" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="H48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2968,22 +2971,22 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="H49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="J49" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2994,25 +2997,25 @@
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="H50" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3023,25 +3026,25 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="G51" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="H51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3052,22 +3055,22 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="H52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/Fabrication files/fydp-BOM.xlsx
+++ b/hardware/Fabrication files/fydp-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingze\Documents\KiCad\7.0\projects\FYDP\hardware\Fabrication files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC35A8F-BBAB-49D4-8432-EF8E5AF4DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8F3C3-6B7C-4487-8522-2780D83B46C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fydp-BOM" sheetId="1" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>TerminalBlock_Phoenix:TerminalBlock_Phoenix_PT-1,5-2-3.5-H_1x02_P3.50mm_Horizontal</t>
-  </si>
-  <si>
     <t>C89122</t>
   </si>
   <si>
@@ -788,6 +785,9 @@
   </si>
   <si>
     <t>RC0805FR-073K6L</t>
+  </si>
+  <si>
+    <t>1751248:CONN_1751248_PXC</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1283,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,31 +1685,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2">
         <v>45328.909722222219</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3">
         <v>258</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -2212,19 +2212,19 @@
         <v>1751248</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="1">
         <v>1751248</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2235,19 +2235,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="H23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>102</v>
@@ -2261,25 +2261,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3">
         <v>5011</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="H24" s="1">
         <v>5011</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2290,19 +2290,19 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>102</v>
@@ -2316,19 +2316,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="H26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>102</v>
@@ -2342,25 +2342,25 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2371,25 +2371,25 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2400,25 +2400,25 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2429,25 +2429,25 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2458,25 +2458,25 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2487,25 +2487,25 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2516,25 +2516,25 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2545,25 +2545,25 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>154</v>
+      <c r="J34" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2574,25 +2574,25 @@
         <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -2603,25 +2603,25 @@
         <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="3">
         <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2632,25 +2632,25 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="F37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2670,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2693,25 +2693,25 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="F39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="3">
         <v>120</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2751,25 +2751,25 @@
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41" s="3">
         <v>290</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2780,25 +2780,25 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2809,13 +2809,13 @@
         <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>92</v>
@@ -2829,25 +2829,25 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2858,25 +2858,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2887,22 +2887,22 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="H46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2913,25 +2913,25 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2942,25 +2942,25 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2971,22 +2971,22 @@
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="H49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2997,25 +2997,25 @@
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="F50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3026,25 +3026,25 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3055,22 +3055,22 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
